--- a/data/evaluation/evaluation_South_Spring_Grapefruits.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Grapefruits.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1619.414893698349</v>
+        <v>1623.746047779381</v>
       </c>
       <c r="C4" t="n">
-        <v>4395183.372877147</v>
+        <v>4460080.869568168</v>
       </c>
       <c r="D4" t="n">
-        <v>2096.469263518344</v>
+        <v>2111.89035453268</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4490581633688071</v>
+        <v>0.4409231794588383</v>
       </c>
     </row>
     <row r="5">
